--- a/Assignment 1/final_plot-momen.xlsx
+++ b/Assignment 1/final_plot-momen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Introduction to CI\CI_Assignment\Assignment 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810B867F-837B-44F1-9453-5A2A9B84D7F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1121F63E-E5E2-4CED-B20C-D22E026EC656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
@@ -53,13 +53,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="187" formatCode="0.000"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -67,7 +67,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -75,7 +75,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="major"/>
@@ -84,7 +84,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -93,7 +93,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -102,7 +102,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -110,7 +110,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -118,7 +118,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -126,7 +126,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -134,7 +134,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -143,7 +143,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -152,7 +152,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -160,7 +160,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -169,7 +169,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -177,7 +177,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -186,7 +186,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -195,7 +195,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -203,7 +203,7 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Tahoma"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -565,52 +565,52 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - ส่วนที่ถูกเน้น6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - ส่วนที่ถูกเน้น6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="เซลล์ตรวจสอบ" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="เซลล์ที่มีลิงก์" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="แย่" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="แสดงผล" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="การคำนวณ" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="ข้อความเตือน" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="ข้อความอธิบาย" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="ชื่อเรื่อง" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="ดี" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
+    <cellStyle name="ป้อนค่า" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="ปานกลาง" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="ผลรวม" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="ส่วนที่ถูกเน้น6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="หมายเหตุ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="หัวเรื่อง 4" xfId="5" builtinId="19" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -628,7 +628,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -662,7 +662,7 @@
               <a:rPr lang="th-TH" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>แผนภูมิแท่งเปรียบเทียบความแม่นยำ</a:t>
+              <a:t>ตารางเปรียบเทียบความแม่นยำ</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1100">
               <a:effectLst/>
@@ -695,7 +695,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -757,7 +757,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -887,7 +887,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1043,7 +1043,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1081,7 +1081,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="242337551"/>
@@ -1170,7 +1170,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1202,7 +1202,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="404443631"/>
@@ -1244,7 +1244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1281,7 +1281,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1295,7 +1295,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1329,7 +1329,27 @@
               <a:rPr lang="th-TH"/>
               <a:t>กราฟเปรียบเทียบระดับน้ำ</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ของ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Momentum Rate </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="th-TH"/>
+              <a:t>ที่ </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>0.1</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1358,7 +1378,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5297,7 +5317,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5335,7 +5355,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="239252239"/>
@@ -5420,7 +5440,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5452,7 +5472,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="390496207"/>
@@ -5494,7 +5514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5531,7 +5551,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5545,7 +5565,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="th-TH"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5608,7 +5628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5670,7 +5690,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5800,7 +5820,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="th-TH"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5868,7 +5888,7 @@
                   <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5951,7 +5971,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5989,7 +6009,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="89859519"/>
@@ -6073,7 +6093,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="th-TH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6105,7 +6125,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="th-TH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2077487183"/>
@@ -6147,7 +6167,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="th-TH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6184,7 +6204,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="th-TH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7951,7 +7971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="ธีมของ Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8249,13 +8269,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N61" sqref="N60:N61"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -8270,7 +8290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>0.1</v>
       </c>
@@ -8317,7 +8337,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>0.3</v>
       </c>
@@ -8367,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5">
         <v>0.5</v>
@@ -8418,7 +8438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>0.8</v>
       </c>
@@ -8468,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J7" s="1">
         <v>3</v>
       </c>
@@ -8504,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J8" s="1">
         <v>4</v>
       </c>
@@ -8540,7 +8560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J9" s="1">
         <v>5</v>
       </c>
@@ -8576,7 +8596,7 @@
         <v>0.65359477124183007</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J10" s="1">
         <v>6</v>
       </c>
@@ -8612,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J11" s="1">
         <v>7</v>
       </c>
@@ -8648,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J12" s="1">
         <v>8</v>
       </c>
@@ -8684,7 +8704,7 @@
         <v>0.64935064935064934</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J13" s="1">
         <v>9</v>
       </c>
@@ -8720,7 +8740,7 @@
         <v>1.2903225806451613</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J14" s="1">
         <v>10</v>
       </c>
@@ -8756,7 +8776,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J15" s="1">
         <v>11</v>
       </c>
@@ -8792,7 +8812,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J16" s="1">
         <v>12</v>
       </c>
@@ -8828,7 +8848,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="17" spans="10:19">
+    <row r="17" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J17" s="1">
         <v>13</v>
       </c>
@@ -8864,7 +8884,7 @@
         <v>1.9230769230769231</v>
       </c>
     </row>
-    <row r="18" spans="10:19">
+    <row r="18" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J18" s="1">
         <v>14</v>
       </c>
@@ -8900,7 +8920,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="19" spans="10:19">
+    <row r="19" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J19" s="1">
         <v>15</v>
       </c>
@@ -8936,7 +8956,7 @@
         <v>6.0975609756097562</v>
       </c>
     </row>
-    <row r="20" spans="10:19">
+    <row r="20" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J20" s="1">
         <v>16</v>
       </c>
@@ -8972,7 +8992,7 @@
         <v>6.0606060606060606</v>
       </c>
     </row>
-    <row r="21" spans="10:19">
+    <row r="21" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J21" s="1">
         <v>17</v>
       </c>
@@ -9008,7 +9028,7 @@
         <v>7.1428571428571432</v>
       </c>
     </row>
-    <row r="22" spans="10:19">
+    <row r="22" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J22" s="1">
         <v>18</v>
       </c>
@@ -9044,7 +9064,7 @@
         <v>9.8837209302325579</v>
       </c>
     </row>
-    <row r="23" spans="10:19">
+    <row r="23" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J23" s="1">
         <v>19</v>
       </c>
@@ -9080,7 +9100,7 @@
         <v>12.921348314606741</v>
       </c>
     </row>
-    <row r="24" spans="10:19">
+    <row r="24" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J24" s="1">
         <v>20</v>
       </c>
@@ -9116,7 +9136,7 @@
         <v>16.48936170212766</v>
       </c>
     </row>
-    <row r="25" spans="10:19">
+    <row r="25" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J25" s="1">
         <v>21</v>
       </c>
@@ -9152,7 +9172,7 @@
         <v>7.8125</v>
       </c>
     </row>
-    <row r="26" spans="10:19">
+    <row r="26" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J26" s="1">
         <v>22</v>
       </c>
@@ -9188,7 +9208,7 @@
         <v>3.3816425120772946</v>
       </c>
     </row>
-    <row r="27" spans="10:19">
+    <row r="27" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J27" s="1">
         <v>23</v>
       </c>
@@ -9224,7 +9244,7 @@
         <v>1.3392857142857142</v>
       </c>
     </row>
-    <row r="28" spans="10:19">
+    <row r="28" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J28" s="1">
         <v>24</v>
       </c>
@@ -9260,7 +9280,7 @@
         <v>3.7974683544303796</v>
       </c>
     </row>
-    <row r="29" spans="10:19">
+    <row r="29" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J29" s="1">
         <v>25</v>
       </c>
@@ -9296,7 +9316,7 @@
         <v>3.2520325203252032</v>
       </c>
     </row>
-    <row r="30" spans="10:19">
+    <row r="30" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J30" s="1">
         <v>26</v>
       </c>
@@ -9332,7 +9352,7 @@
         <v>3.4749034749034751</v>
       </c>
     </row>
-    <row r="31" spans="10:19">
+    <row r="31" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J31" s="1">
         <v>27</v>
       </c>
@@ -9368,7 +9388,7 @@
         <v>3.7037037037037037</v>
       </c>
     </row>
-    <row r="32" spans="10:19">
+    <row r="32" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J32" s="1">
         <v>28</v>
       </c>
@@ -9404,7 +9424,7 @@
         <v>4.6428571428571432</v>
       </c>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J33" s="1">
         <v>29</v>
       </c>
@@ -9440,7 +9460,7 @@
         <v>3.4482758620689653</v>
       </c>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J34" s="1">
         <v>30</v>
       </c>
@@ -9476,7 +9496,7 @@
         <v>1.3468013468013469</v>
       </c>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J35" s="1">
         <v>31</v>
       </c>
@@ -9512,7 +9532,7 @@
         <v>0.66006600660066006</v>
       </c>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J36" s="1">
         <v>32</v>
       </c>
@@ -9548,7 +9568,7 @@
         <v>2.5477707006369426</v>
       </c>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J37" s="1">
         <v>33</v>
       </c>
@@ -9584,7 +9604,7 @@
         <v>2.7607361963190185</v>
       </c>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J38" s="1">
         <v>34</v>
       </c>
@@ -9620,7 +9640,7 @@
         <v>2.0588235294117645</v>
       </c>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J39" s="1">
         <v>35</v>
       </c>
@@ -9656,7 +9676,7 @@
         <v>1.1049723756906078</v>
       </c>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J40" s="1">
         <v>36</v>
       </c>
@@ -9692,7 +9712,7 @@
         <v>0.51282051282051277</v>
       </c>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.3">
       <c r="J41" s="1">
         <v>37</v>
       </c>
@@ -9728,7 +9748,7 @@
         <v>2.4271844660194173</v>
       </c>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>0</v>
       </c>
@@ -9773,7 +9793,7 @@
         <v>1.3793103448275863</v>
       </c>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>0.1</v>
       </c>
@@ -9828,7 +9848,7 @@
         <v>2.2371364653243848</v>
       </c>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>0.3</v>
       </c>
@@ -9883,7 +9903,7 @@
         <v>1.075268817204301</v>
       </c>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>0.5</v>
       </c>
@@ -9932,7 +9952,7 @@
         <v>1.0683760683760684</v>
       </c>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>0.8</v>
       </c>
@@ -9944,7 +9964,7 @@
       </c>
       <c r="E46">
         <f>SUM(F54,G55)*100/SUM(F54:G55)</f>
-        <v>98</v>
+        <v>98.5</v>
       </c>
       <c r="J46" s="1">
         <v>42</v>
@@ -9981,7 +10001,7 @@
         <v>1.2765957446808511</v>
       </c>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F47">
         <v>97</v>
       </c>
@@ -10023,7 +10043,7 @@
         <v>1.4830508474576272</v>
       </c>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F48">
         <v>2</v>
       </c>
@@ -10065,7 +10085,7 @@
         <v>1.263157894736842</v>
       </c>
     </row>
-    <row r="49" spans="6:19">
+    <row r="49" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J49" s="1">
         <v>45</v>
       </c>
@@ -10101,7 +10121,7 @@
         <v>1.0460251046025104</v>
       </c>
     </row>
-    <row r="50" spans="6:19">
+    <row r="50" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J50" s="1">
         <v>46</v>
       </c>
@@ -10137,7 +10157,7 @@
         <v>1.0395010395010396</v>
       </c>
     </row>
-    <row r="51" spans="6:19">
+    <row r="51" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F51" s="1">
         <v>98</v>
       </c>
@@ -10179,7 +10199,7 @@
         <v>1.2422360248447204</v>
       </c>
     </row>
-    <row r="52" spans="6:19">
+    <row r="52" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F52" s="1">
         <v>3</v>
       </c>
@@ -10221,7 +10241,7 @@
         <v>0.82474226804123707</v>
       </c>
     </row>
-    <row r="53" spans="6:19">
+    <row r="53" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J53" s="1">
         <v>49</v>
       </c>
@@ -10257,7 +10277,7 @@
         <v>0.82304526748971196</v>
       </c>
     </row>
-    <row r="54" spans="6:19">
+    <row r="54" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>98</v>
       </c>
@@ -10299,12 +10319,12 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="55" spans="6:19">
+    <row r="55" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J55" s="1">
         <v>51</v>
@@ -10341,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:19">
+    <row r="56" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J56" s="1">
         <v>52</v>
       </c>
@@ -10377,7 +10397,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="57" spans="6:19">
+    <row r="57" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J57" s="1">
         <v>53</v>
       </c>
@@ -10413,7 +10433,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="58" spans="6:19">
+    <row r="58" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J58" s="1">
         <v>54</v>
       </c>
@@ -10449,7 +10469,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="59" spans="6:19">
+    <row r="59" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J59" s="1">
         <v>55</v>
       </c>
@@ -10485,7 +10505,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="60" spans="6:19">
+    <row r="60" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J60" s="1">
         <v>56</v>
       </c>
@@ -10521,7 +10541,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="61" spans="6:19">
+    <row r="61" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J61" s="1">
         <v>57</v>
       </c>
@@ -10557,7 +10577,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="62" spans="6:19">
+    <row r="62" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J62" s="1">
         <v>58</v>
       </c>
@@ -10593,7 +10613,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="63" spans="6:19">
+    <row r="63" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J63" s="1">
         <v>59</v>
       </c>
@@ -10629,7 +10649,7 @@
         <v>0.20408163265306123</v>
       </c>
     </row>
-    <row r="64" spans="6:19">
+    <row r="64" spans="6:19" x14ac:dyDescent="0.3">
       <c r="J64" s="1">
         <v>60</v>
       </c>
@@ -10665,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="10:19">
+    <row r="65" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J65" s="1">
         <v>61</v>
       </c>
@@ -10701,7 +10721,7 @@
         <v>0.20491803278688525</v>
       </c>
     </row>
-    <row r="66" spans="10:19">
+    <row r="66" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J66" s="1">
         <v>62</v>
       </c>
@@ -10737,7 +10757,7 @@
         <v>0.41152263374485598</v>
       </c>
     </row>
-    <row r="67" spans="10:19">
+    <row r="67" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J67" s="1">
         <v>63</v>
       </c>
@@ -10773,7 +10793,7 @@
         <v>0.41322314049586778</v>
       </c>
     </row>
-    <row r="68" spans="10:19">
+    <row r="68" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J68" s="1">
         <v>64</v>
       </c>
@@ -10809,7 +10829,7 @@
         <v>0.62370062370062374</v>
       </c>
     </row>
-    <row r="69" spans="10:19">
+    <row r="69" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J69" s="1">
         <v>65</v>
       </c>
@@ -10845,7 +10865,7 @@
         <v>0.83682008368200833</v>
       </c>
     </row>
-    <row r="70" spans="10:19">
+    <row r="70" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J70" s="1">
         <v>66</v>
       </c>
@@ -10881,7 +10901,7 @@
         <v>0.84210526315789469</v>
       </c>
     </row>
-    <row r="71" spans="10:19">
+    <row r="71" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J71" s="1">
         <v>67</v>
       </c>
@@ -10917,7 +10937,7 @@
         <v>1.4893617021276595</v>
       </c>
     </row>
-    <row r="72" spans="10:19">
+    <row r="72" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J72" s="1">
         <v>68</v>
       </c>
@@ -10953,7 +10973,7 @@
         <v>1.4957264957264957</v>
       </c>
     </row>
-    <row r="73" spans="10:19">
+    <row r="73" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J73" s="1">
         <v>69</v>
       </c>
@@ -10989,7 +11009,7 @@
         <v>1.9396551724137931</v>
       </c>
     </row>
-    <row r="74" spans="10:19">
+    <row r="74" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J74" s="1">
         <v>70</v>
       </c>
@@ -11025,7 +11045,7 @@
         <v>2.3913043478260869</v>
       </c>
     </row>
-    <row r="75" spans="10:19">
+    <row r="75" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J75" s="1">
         <v>71</v>
       </c>
@@ -11061,7 +11081,7 @@
         <v>2.8508771929824563</v>
       </c>
     </row>
-    <row r="76" spans="10:19">
+    <row r="76" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J76" s="1">
         <v>72</v>
       </c>
@@ -11097,7 +11117,7 @@
         <v>2.6607538802660753</v>
       </c>
     </row>
-    <row r="77" spans="10:19">
+    <row r="77" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J77" s="1">
         <v>73</v>
       </c>
@@ -11133,7 +11153,7 @@
         <v>1.7857142857142858</v>
       </c>
     </row>
-    <row r="78" spans="10:19">
+    <row r="78" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J78" s="1">
         <v>74</v>
       </c>
@@ -11169,7 +11189,7 @@
         <v>1.5765765765765767</v>
       </c>
     </row>
-    <row r="79" spans="10:19">
+    <row r="79" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J79" s="1">
         <v>75</v>
       </c>
@@ -11205,7 +11225,7 @@
         <v>1.5909090909090908</v>
       </c>
     </row>
-    <row r="80" spans="10:19">
+    <row r="80" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J80" s="1">
         <v>76</v>
       </c>
@@ -11241,7 +11261,7 @@
         <v>1.6055045871559632</v>
       </c>
     </row>
-    <row r="81" spans="10:19">
+    <row r="81" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J81" s="1">
         <v>77</v>
       </c>
@@ -11277,7 +11297,7 @@
         <v>2.3201856148491879</v>
       </c>
     </row>
-    <row r="82" spans="10:19">
+    <row r="82" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J82" s="1">
         <v>78</v>
       </c>
@@ -11313,7 +11333,7 @@
         <v>2.1077283372365341</v>
       </c>
     </row>
-    <row r="83" spans="10:19">
+    <row r="83" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J83" s="1">
         <v>79</v>
       </c>
@@ -11349,7 +11369,7 @@
         <v>2.1327014218009479</v>
       </c>
     </row>
-    <row r="84" spans="10:19">
+    <row r="84" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J84" s="1">
         <v>80</v>
       </c>
@@ -11385,7 +11405,7 @@
         <v>2.6442307692307692</v>
       </c>
     </row>
-    <row r="85" spans="10:19">
+    <row r="85" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J85" s="1">
         <v>81</v>
       </c>
@@ -11421,7 +11441,7 @@
         <v>2.9268292682926829</v>
       </c>
     </row>
-    <row r="86" spans="10:19">
+    <row r="86" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J86" s="1">
         <v>82</v>
       </c>
@@ -11457,7 +11477,7 @@
         <v>3.217821782178218</v>
       </c>
     </row>
-    <row r="87" spans="10:19">
+    <row r="87" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J87" s="1">
         <v>83</v>
       </c>
@@ -11493,7 +11513,7 @@
         <v>3.7878787878787881</v>
       </c>
     </row>
-    <row r="88" spans="10:19">
+    <row r="88" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J88" s="1">
         <v>84</v>
       </c>
@@ -11529,7 +11549,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="89" spans="10:19">
+    <row r="89" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J89" s="1">
         <v>85</v>
       </c>
@@ -11565,7 +11585,7 @@
         <v>3.6649214659685865</v>
       </c>
     </row>
-    <row r="90" spans="10:19">
+    <row r="90" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J90" s="1">
         <v>86</v>
       </c>
@@ -11601,7 +11621,7 @@
         <v>3.4574468085106385</v>
       </c>
     </row>
-    <row r="91" spans="10:19">
+    <row r="91" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J91" s="1">
         <v>87</v>
       </c>
@@ -11637,7 +11657,7 @@
         <v>3.2608695652173911</v>
       </c>
     </row>
-    <row r="92" spans="10:19">
+    <row r="92" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J92" s="1">
         <v>88</v>
       </c>
@@ -11673,7 +11693,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="93" spans="10:19">
+    <row r="93" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J93" s="1">
         <v>89</v>
       </c>
@@ -11709,7 +11729,7 @@
         <v>2.5280898876404496</v>
       </c>
     </row>
-    <row r="94" spans="10:19">
+    <row r="94" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J94" s="1">
         <v>90</v>
       </c>
@@ -11745,7 +11765,7 @@
         <v>1.4245014245014245</v>
       </c>
     </row>
-    <row r="95" spans="10:19">
+    <row r="95" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J95" s="1">
         <v>91</v>
       </c>
@@ -11781,7 +11801,7 @@
         <v>1.7441860465116279</v>
       </c>
     </row>
-    <row r="96" spans="10:19">
+    <row r="96" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J96" s="1">
         <v>92</v>
       </c>
@@ -11817,7 +11837,7 @@
         <v>0.58997050147492625</v>
       </c>
     </row>
-    <row r="97" spans="10:19">
+    <row r="97" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J97" s="1">
         <v>93</v>
       </c>
@@ -11853,7 +11873,7 @@
         <v>0.29850746268656714</v>
       </c>
     </row>
-    <row r="98" spans="10:19">
+    <row r="98" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J98" s="1">
         <v>94</v>
       </c>
@@ -11889,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="10:19">
+    <row r="99" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J99" s="1">
         <v>95</v>
       </c>
@@ -11925,7 +11945,7 @@
         <v>0.91743119266055051</v>
       </c>
     </row>
-    <row r="100" spans="10:19">
+    <row r="100" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J100" s="1">
         <v>96</v>
       </c>
@@ -11961,7 +11981,7 @@
         <v>0.30959752321981426</v>
       </c>
     </row>
-    <row r="101" spans="10:19">
+    <row r="101" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J101" s="1">
         <v>97</v>
       </c>
@@ -11997,7 +12017,7 @@
         <v>0.31347962382445144</v>
       </c>
     </row>
-    <row r="102" spans="10:19">
+    <row r="102" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J102" s="1">
         <v>98</v>
       </c>
@@ -12033,7 +12053,7 @@
         <v>0.31746031746031744</v>
       </c>
     </row>
-    <row r="103" spans="10:19">
+    <row r="103" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J103" s="1">
         <v>99</v>
       </c>
@@ -12069,7 +12089,7 @@
         <v>0.32154340836012862</v>
       </c>
     </row>
-    <row r="104" spans="10:19">
+    <row r="104" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J104" s="1">
         <v>100</v>
       </c>
@@ -12105,7 +12125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="10:19">
+    <row r="105" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J105" s="1">
         <v>101</v>
       </c>
@@ -12141,7 +12161,7 @@
         <v>0.98039215686274506</v>
       </c>
     </row>
-    <row r="106" spans="10:19">
+    <row r="106" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J106" s="1">
         <v>102</v>
       </c>
@@ -12177,7 +12197,7 @@
         <v>0.99009900990099009</v>
       </c>
     </row>
-    <row r="107" spans="10:19">
+    <row r="107" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J107" s="1">
         <v>103</v>
       </c>
@@ -12213,7 +12233,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="108" spans="10:19">
+    <row r="108" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J108" s="1">
         <v>104</v>
       </c>
@@ -12249,7 +12269,7 @@
         <v>1.3513513513513513</v>
       </c>
     </row>
-    <row r="109" spans="10:19">
+    <row r="109" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J109" s="1">
         <v>105</v>
       </c>
@@ -12285,7 +12305,7 @@
         <v>3.4013605442176869</v>
       </c>
     </row>
-    <row r="110" spans="10:19">
+    <row r="110" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J110" s="1">
         <v>106</v>
       </c>
@@ -12321,7 +12341,7 @@
         <v>4.4520547945205475</v>
       </c>
     </row>
-    <row r="111" spans="10:19">
+    <row r="111" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J111" s="1">
         <v>107</v>
       </c>
@@ -12357,7 +12377,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="112" spans="10:19">
+    <row r="112" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J112" s="1">
         <v>108</v>
       </c>
@@ -12393,7 +12413,7 @@
         <v>4.1958041958041958</v>
       </c>
     </row>
-    <row r="113" spans="10:19">
+    <row r="113" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J113" s="1">
         <v>109</v>
       </c>
@@ -12429,7 +12449,7 @@
         <v>4.225352112676056</v>
       </c>
     </row>
-    <row r="114" spans="10:19">
+    <row r="114" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J114" s="1">
         <v>110</v>
       </c>
@@ -12465,7 +12485,7 @@
         <v>3.9285714285714284</v>
       </c>
     </row>
-    <row r="115" spans="10:19">
+    <row r="115" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J115" s="1">
         <v>111</v>
       </c>
@@ -12501,7 +12521,7 @@
         <v>4.7101449275362315</v>
       </c>
     </row>
-    <row r="116" spans="10:19">
+    <row r="116" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J116" s="1">
         <v>112</v>
       </c>
@@ -12537,7 +12557,7 @@
         <v>4.7445255474452557</v>
       </c>
     </row>
-    <row r="117" spans="10:19">
+    <row r="117" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J117" s="1">
         <v>113</v>
       </c>
@@ -12573,7 +12593,7 @@
         <v>3.6900369003690039</v>
       </c>
     </row>
-    <row r="118" spans="10:19">
+    <row r="118" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J118" s="1">
         <v>114</v>
       </c>
@@ -12609,7 +12629,7 @@
         <v>3.7313432835820897</v>
       </c>
     </row>
-    <row r="119" spans="10:19">
+    <row r="119" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J119" s="1">
         <v>115</v>
       </c>
@@ -12645,7 +12665,7 @@
         <v>3.3962264150943398</v>
       </c>
     </row>
-    <row r="120" spans="10:19">
+    <row r="120" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J120" s="1">
         <v>116</v>
       </c>
@@ -12681,7 +12701,7 @@
         <v>2.6717557251908395</v>
       </c>
     </row>
-    <row r="121" spans="10:19">
+    <row r="121" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J121" s="1">
         <v>117</v>
       </c>
@@ -12717,7 +12737,7 @@
         <v>2.3166023166023164</v>
       </c>
     </row>
-    <row r="122" spans="10:19">
+    <row r="122" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J122" s="1">
         <v>118</v>
       </c>
@@ -12753,7 +12773,7 @@
         <v>3.515625</v>
       </c>
     </row>
-    <row r="123" spans="10:19">
+    <row r="123" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J123" s="1">
         <v>119</v>
       </c>
@@ -12789,7 +12809,7 @@
         <v>2.766798418972332</v>
       </c>
     </row>
-    <row r="124" spans="10:19">
+    <row r="124" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J124" s="1">
         <v>120</v>
       </c>
@@ -12825,7 +12845,7 @@
         <v>2.766798418972332</v>
       </c>
     </row>
-    <row r="125" spans="10:19">
+    <row r="125" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J125" s="1">
         <v>121</v>
       </c>
@@ -12861,7 +12881,7 @@
         <v>2.3809523809523809</v>
       </c>
     </row>
-    <row r="126" spans="10:19">
+    <row r="126" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J126" s="1">
         <v>122</v>
       </c>
@@ -12897,7 +12917,7 @@
         <v>3.1746031746031744</v>
       </c>
     </row>
-    <row r="127" spans="10:19">
+    <row r="127" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J127" s="1">
         <v>123</v>
       </c>
@@ -12933,7 +12953,7 @@
         <v>3.5856573705179282</v>
       </c>
     </row>
-    <row r="128" spans="10:19">
+    <row r="128" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J128" s="1">
         <v>124</v>
       </c>
@@ -12969,7 +12989,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="129" spans="10:19">
+    <row r="129" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J129" s="1">
         <v>125</v>
       </c>
@@ -13005,7 +13025,7 @@
         <v>6.4257028112449799</v>
       </c>
     </row>
-    <row r="130" spans="10:19">
+    <row r="130" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J130" s="1">
         <v>126</v>
       </c>
@@ -13041,7 +13061,7 @@
         <v>6.4516129032258061</v>
       </c>
     </row>
-    <row r="131" spans="10:19">
+    <row r="131" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J131" s="1">
         <v>127</v>
       </c>
@@ -13077,7 +13097,7 @@
         <v>5.668016194331984</v>
       </c>
     </row>
-    <row r="132" spans="10:19">
+    <row r="132" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J132" s="1">
         <v>128</v>
       </c>
@@ -13113,7 +13133,7 @@
         <v>4.4534412955465585</v>
       </c>
     </row>
-    <row r="133" spans="10:19">
+    <row r="133" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J133" s="1">
         <v>129</v>
       </c>
@@ -13149,7 +13169,7 @@
         <v>4.048582995951417</v>
       </c>
     </row>
-    <row r="134" spans="10:19">
+    <row r="134" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J134" s="1">
         <v>130</v>
       </c>
@@ -13185,7 +13205,7 @@
         <v>4.4715447154471546</v>
       </c>
     </row>
-    <row r="135" spans="10:19">
+    <row r="135" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J135" s="1">
         <v>131</v>
       </c>
@@ -13221,7 +13241,7 @@
         <v>5.2845528455284549</v>
       </c>
     </row>
-    <row r="136" spans="10:19">
+    <row r="136" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J136" s="1">
         <v>132</v>
       </c>
@@ -13257,7 +13277,7 @@
         <v>5.3061224489795915</v>
       </c>
     </row>
-    <row r="137" spans="10:19">
+    <row r="137" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J137" s="1">
         <v>133</v>
       </c>
@@ -13293,7 +13313,7 @@
         <v>5.7142857142857144</v>
       </c>
     </row>
-    <row r="138" spans="10:19">
+    <row r="138" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J138" s="1">
         <v>134</v>
       </c>
@@ -13329,7 +13349,7 @@
         <v>5.3278688524590168</v>
       </c>
     </row>
-    <row r="139" spans="10:19">
+    <row r="139" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J139" s="1">
         <v>135</v>
       </c>
@@ -13365,7 +13385,7 @@
         <v>5.3497942386831276</v>
       </c>
     </row>
-    <row r="140" spans="10:19">
+    <row r="140" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J140" s="1">
         <v>136</v>
       </c>
@@ -13401,7 +13421,7 @@
         <v>4.9586776859504136</v>
       </c>
     </row>
-    <row r="141" spans="10:19">
+    <row r="141" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J141" s="1">
         <v>137</v>
       </c>
@@ -13437,7 +13457,7 @@
         <v>4.5643153526970952</v>
       </c>
     </row>
-    <row r="142" spans="10:19">
+    <row r="142" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J142" s="1">
         <v>138</v>
       </c>
@@ -13473,7 +13493,7 @@
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="143" spans="10:19">
+    <row r="143" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J143" s="1">
         <v>139</v>
       </c>
@@ -13509,7 +13529,7 @@
         <v>0.83682008368200833</v>
       </c>
     </row>
-    <row r="144" spans="10:19">
+    <row r="144" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J144" s="1">
         <v>140</v>
       </c>
@@ -13545,7 +13565,7 @@
         <v>1.680672268907563</v>
       </c>
     </row>
-    <row r="145" spans="10:19">
+    <row r="145" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J145" s="1">
         <v>141</v>
       </c>
@@ -13581,7 +13601,7 @@
         <v>2.1186440677966103</v>
       </c>
     </row>
-    <row r="146" spans="10:19">
+    <row r="146" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J146" s="1">
         <v>142</v>
       </c>
@@ -13617,7 +13637,7 @@
         <v>1.7094017094017093</v>
       </c>
     </row>
-    <row r="147" spans="10:19">
+    <row r="147" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J147" s="1">
         <v>143</v>
       </c>
@@ -13653,7 +13673,7 @@
         <v>2.1276595744680851</v>
       </c>
     </row>
-    <row r="148" spans="10:19">
+    <row r="148" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J148" s="1">
         <v>144</v>
       </c>
@@ -13689,7 +13709,7 @@
         <v>2.1367521367521367</v>
       </c>
     </row>
-    <row r="149" spans="10:19">
+    <row r="149" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J149" s="1">
         <v>145</v>
       </c>
@@ -13725,7 +13745,7 @@
         <v>1.7167381974248928</v>
       </c>
     </row>
-    <row r="150" spans="10:19">
+    <row r="150" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J150" s="1">
         <v>146</v>
       </c>
@@ -13761,7 +13781,7 @@
         <v>1.2931034482758621</v>
       </c>
     </row>
-    <row r="151" spans="10:19">
+    <row r="151" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J151" s="1">
         <v>147</v>
       </c>
@@ -13797,7 +13817,7 @@
         <v>0.86580086580086579</v>
       </c>
     </row>
-    <row r="152" spans="10:19">
+    <row r="152" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J152" s="1">
         <v>148</v>
       </c>
@@ -13833,7 +13853,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="153" spans="10:19">
+    <row r="153" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J153" s="1">
         <v>149</v>
       </c>
@@ -13869,7 +13889,7 @@
         <v>0.43478260869565216</v>
       </c>
     </row>
-    <row r="154" spans="10:19">
+    <row r="154" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J154" s="1">
         <v>150</v>
       </c>
@@ -13905,7 +13925,7 @@
         <v>0.86580086580086579</v>
       </c>
     </row>
-    <row r="155" spans="10:19">
+    <row r="155" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J155" s="1">
         <v>151</v>
       </c>
@@ -13941,7 +13961,7 @@
         <v>0.86206896551724133</v>
       </c>
     </row>
-    <row r="156" spans="10:19">
+    <row r="156" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J156" s="1">
         <v>152</v>
       </c>
@@ -13977,7 +13997,7 @@
         <v>1.7094017094017093</v>
       </c>
     </row>
-    <row r="157" spans="10:19">
+    <row r="157" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J157" s="1">
         <v>153</v>
       </c>
@@ -14013,7 +14033,7 @@
         <v>2.9661016949152543</v>
       </c>
     </row>
-    <row r="158" spans="10:19">
+    <row r="158" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J158" s="1">
         <v>154</v>
       </c>
@@ -14049,7 +14069,7 @@
         <v>4.583333333333333</v>
       </c>
     </row>
-    <row r="159" spans="10:19">
+    <row r="159" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J159" s="1">
         <v>155</v>
       </c>
@@ -14085,7 +14105,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="160" spans="10:19">
+    <row r="160" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J160" s="1">
         <v>156</v>
       </c>
@@ -14121,7 +14141,7 @@
         <v>4.8076923076923075</v>
       </c>
     </row>
-    <row r="161" spans="10:19">
+    <row r="161" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J161" s="1">
         <v>157</v>
       </c>
@@ -14157,7 +14177,7 @@
         <v>4.8076923076923075</v>
       </c>
     </row>
-    <row r="162" spans="10:19">
+    <row r="162" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J162" s="1">
         <v>158</v>
       </c>
@@ -14193,7 +14213,7 @@
         <v>4.3062200956937797</v>
       </c>
     </row>
-    <row r="163" spans="10:19">
+    <row r="163" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J163" s="1">
         <v>159</v>
       </c>
@@ -14229,7 +14249,7 @@
         <v>4.3062200956937797</v>
       </c>
     </row>
-    <row r="164" spans="10:19">
+    <row r="164" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J164" s="1">
         <v>160</v>
       </c>
@@ -14265,7 +14285,7 @@
         <v>5.741626794258373</v>
       </c>
     </row>
-    <row r="165" spans="10:19">
+    <row r="165" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J165" s="1">
         <v>161</v>
       </c>
@@ -14301,7 +14321,7 @@
         <v>5.741626794258373</v>
       </c>
     </row>
-    <row r="166" spans="10:19">
+    <row r="166" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J166" s="1">
         <v>162</v>
       </c>
@@ -14337,7 +14357,7 @@
         <v>5.2631578947368425</v>
       </c>
     </row>
-    <row r="167" spans="10:19">
+    <row r="167" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J167" s="1">
         <v>163</v>
       </c>
@@ -14373,7 +14393,7 @@
         <v>3.3492822966507179</v>
       </c>
     </row>
-    <row r="168" spans="10:19">
+    <row r="168" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J168" s="1">
         <v>164</v>
       </c>
@@ -14409,7 +14429,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="169" spans="10:19">
+    <row r="169" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J169" s="1">
         <v>165</v>
       </c>
@@ -14445,7 +14465,7 @@
         <v>1.9047619047619047</v>
       </c>
     </row>
-    <row r="170" spans="10:19">
+    <row r="170" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J170" s="1">
         <v>166</v>
       </c>
@@ -14481,7 +14501,7 @@
         <v>1.8957345971563981</v>
       </c>
     </row>
-    <row r="171" spans="10:19">
+    <row r="171" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J171" s="1">
         <v>167</v>
       </c>
@@ -14517,7 +14537,7 @@
         <v>2.3696682464454977</v>
       </c>
     </row>
-    <row r="172" spans="10:19">
+    <row r="172" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J172" s="1">
         <v>168</v>
       </c>
@@ -14553,7 +14573,7 @@
         <v>4.716981132075472</v>
       </c>
     </row>
-    <row r="173" spans="10:19">
+    <row r="173" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J173" s="1">
         <v>169</v>
       </c>
@@ -14589,7 +14609,7 @@
         <v>5.6338028169014081</v>
       </c>
     </row>
-    <row r="174" spans="10:19">
+    <row r="174" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J174" s="1">
         <v>170</v>
       </c>
@@ -14625,7 +14645,7 @@
         <v>6.103286384976526</v>
       </c>
     </row>
-    <row r="175" spans="10:19">
+    <row r="175" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J175" s="1">
         <v>171</v>
       </c>
@@ -14661,7 +14681,7 @@
         <v>5.6074766355140184</v>
       </c>
     </row>
-    <row r="176" spans="10:19">
+    <row r="176" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J176" s="1">
         <v>172</v>
       </c>
@@ -14697,7 +14717,7 @@
         <v>5.6074766355140184</v>
       </c>
     </row>
-    <row r="177" spans="10:19">
+    <row r="177" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J177" s="1">
         <v>173</v>
       </c>
@@ -14733,7 +14753,7 @@
         <v>5.1401869158878508</v>
       </c>
     </row>
-    <row r="178" spans="10:19">
+    <row r="178" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J178" s="1">
         <v>174</v>
       </c>
@@ -14769,7 +14789,7 @@
         <v>6.0465116279069768</v>
       </c>
     </row>
-    <row r="179" spans="10:19">
+    <row r="179" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J179" s="1">
         <v>175</v>
       </c>
@@ -14805,7 +14825,7 @@
         <v>5.1162790697674421</v>
       </c>
     </row>
-    <row r="180" spans="10:19">
+    <row r="180" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J180" s="1">
         <v>176</v>
       </c>
@@ -14841,7 +14861,7 @@
         <v>3.7209302325581395</v>
       </c>
     </row>
-    <row r="181" spans="10:19">
+    <row r="181" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J181" s="1">
         <v>177</v>
       </c>
@@ -14877,7 +14897,7 @@
         <v>3.2558139534883721</v>
       </c>
     </row>
-    <row r="182" spans="10:19">
+    <row r="182" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J182" s="1">
         <v>178</v>
       </c>
@@ -14913,7 +14933,7 @@
         <v>2.7777777777777777</v>
       </c>
     </row>
-    <row r="183" spans="10:19">
+    <row r="183" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J183" s="1">
         <v>179</v>
       </c>
@@ -14949,7 +14969,7 @@
         <v>2.3041474654377878</v>
       </c>
     </row>
-    <row r="184" spans="10:19">
+    <row r="184" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J184" s="1">
         <v>180</v>
       </c>
@@ -14985,7 +15005,7 @@
         <v>2.2935779816513762</v>
       </c>
     </row>
-    <row r="185" spans="10:19">
+    <row r="185" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J185" s="1">
         <v>181</v>
       </c>
@@ -15021,7 +15041,7 @@
         <v>2.7149321266968327</v>
       </c>
     </row>
-    <row r="186" spans="10:19">
+    <row r="186" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J186" s="1">
         <v>182</v>
       </c>
@@ -15057,7 +15077,7 @@
         <v>5.333333333333333</v>
       </c>
     </row>
-    <row r="187" spans="10:19">
+    <row r="187" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J187" s="1">
         <v>183</v>
       </c>
@@ -15093,7 +15113,7 @@
         <v>8.2608695652173907</v>
       </c>
     </row>
-    <row r="188" spans="10:19">
+    <row r="188" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J188" s="1">
         <v>184</v>
       </c>
@@ -15129,7 +15149,7 @@
         <v>8.1896551724137936</v>
       </c>
     </row>
-    <row r="189" spans="10:19">
+    <row r="189" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J189" s="1">
         <v>185</v>
       </c>
@@ -15165,7 +15185,7 @@
         <v>9.3617021276595747</v>
       </c>
     </row>
-    <row r="190" spans="10:19">
+    <row r="190" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J190" s="1">
         <v>186</v>
       </c>
@@ -15201,7 +15221,7 @@
         <v>9.6638655462184868</v>
       </c>
     </row>
-    <row r="191" spans="10:19">
+    <row r="191" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J191" s="1">
         <v>187</v>
       </c>
@@ -15237,7 +15257,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="192" spans="10:19">
+    <row r="192" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J192" s="1">
         <v>188</v>
       </c>
@@ -15273,7 +15293,7 @@
         <v>7.7551020408163263</v>
       </c>
     </row>
-    <row r="193" spans="10:19">
+    <row r="193" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J193" s="1">
         <v>189</v>
       </c>
@@ -15309,7 +15329,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="194" spans="10:19">
+    <row r="194" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J194" s="1">
         <v>190</v>
       </c>
@@ -15345,7 +15365,7 @@
         <v>2.7450980392156863</v>
       </c>
     </row>
-    <row r="195" spans="10:19">
+    <row r="195" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J195" s="1">
         <v>191</v>
       </c>
@@ -15381,7 +15401,7 @@
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="196" spans="10:19">
+    <row r="196" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J196" s="1">
         <v>192</v>
       </c>
@@ -15417,7 +15437,7 @@
         <v>5.5555555555555554</v>
       </c>
     </row>
-    <row r="197" spans="10:19">
+    <row r="197" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J197" s="1">
         <v>193</v>
       </c>
@@ -15453,7 +15473,7 @@
         <v>9.7222222222222214</v>
       </c>
     </row>
-    <row r="198" spans="10:19">
+    <row r="198" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J198" s="1">
         <v>194</v>
       </c>
@@ -15489,7 +15509,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="10:19">
+    <row r="199" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J199" s="1">
         <v>195</v>
       </c>
@@ -15525,7 +15545,7 @@
         <v>5.0955414012738851</v>
       </c>
     </row>
-    <row r="200" spans="10:19">
+    <row r="200" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J200" s="1">
         <v>196</v>
       </c>
@@ -15561,7 +15581,7 @@
         <v>3.6585365853658538</v>
       </c>
     </row>
-    <row r="201" spans="10:19">
+    <row r="201" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J201" s="1">
         <v>197</v>
       </c>
@@ -15597,7 +15617,7 @@
         <v>0.88235294117647056</v>
       </c>
     </row>
-    <row r="202" spans="10:19">
+    <row r="202" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J202" s="1">
         <v>198</v>
       </c>
@@ -15633,7 +15653,7 @@
         <v>2.2857142857142856</v>
       </c>
     </row>
-    <row r="203" spans="10:19">
+    <row r="203" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J203" s="1">
         <v>199</v>
       </c>
@@ -15669,7 +15689,7 @@
         <v>0.27777777777777779</v>
       </c>
     </row>
-    <row r="204" spans="10:19">
+    <row r="204" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J204" s="1">
         <v>200</v>
       </c>
@@ -15705,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="10:19">
+    <row r="205" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J205" s="1">
         <v>201</v>
       </c>
@@ -15741,7 +15761,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="206" spans="10:19">
+    <row r="206" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J206" s="1">
         <v>202</v>
       </c>
@@ -15777,7 +15797,7 @@
         <v>1.2820512820512822</v>
       </c>
     </row>
-    <row r="207" spans="10:19">
+    <row r="207" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J207" s="1">
         <v>203</v>
       </c>
@@ -15813,7 +15833,7 @@
         <v>1.0050251256281406</v>
       </c>
     </row>
-    <row r="208" spans="10:19">
+    <row r="208" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J208" s="1">
         <v>204</v>
       </c>
@@ -15849,7 +15869,7 @@
         <v>2.4691358024691357</v>
       </c>
     </row>
-    <row r="209" spans="10:19">
+    <row r="209" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J209" s="1">
         <v>205</v>
       </c>
@@ -15885,7 +15905,7 @@
         <v>1.6990291262135921</v>
       </c>
     </row>
-    <row r="210" spans="10:19">
+    <row r="210" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J210" s="1">
         <v>206</v>
       </c>
@@ -15921,7 +15941,7 @@
         <v>0.47619047619047616</v>
       </c>
     </row>
-    <row r="211" spans="10:19">
+    <row r="211" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J211" s="1">
         <v>207</v>
       </c>
@@ -15957,7 +15977,7 @@
         <v>0.23364485981308411</v>
       </c>
     </row>
-    <row r="212" spans="10:19">
+    <row r="212" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J212" s="1">
         <v>208</v>
       </c>
@@ -15993,7 +16013,7 @@
         <v>1.6166281755196306</v>
       </c>
     </row>
-    <row r="213" spans="10:19">
+    <row r="213" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J213" s="1">
         <v>209</v>
       </c>
@@ -16029,7 +16049,7 @@
         <v>2.5114155251141552</v>
       </c>
     </row>
-    <row r="214" spans="10:19">
+    <row r="214" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J214" s="1">
         <v>210</v>
       </c>
@@ -16065,7 +16085,7 @@
         <v>2.2471910112359552</v>
       </c>
     </row>
-    <row r="215" spans="10:19">
+    <row r="215" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J215" s="1">
         <v>211</v>
       </c>
@@ -16101,7 +16121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="10:19">
+    <row r="216" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J216" s="1">
         <v>212</v>
       </c>
@@ -16137,7 +16157,7 @@
         <v>1.9823788546255507</v>
       </c>
     </row>
-    <row r="217" spans="10:19">
+    <row r="217" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J217" s="1">
         <v>213</v>
       </c>
@@ -16173,7 +16193,7 @@
         <v>2.1881838074398248</v>
       </c>
     </row>
-    <row r="218" spans="10:19">
+    <row r="218" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J218" s="1">
         <v>214</v>
       </c>
@@ -16209,7 +16229,7 @@
         <v>2.1739130434782608</v>
       </c>
     </row>
-    <row r="219" spans="10:19">
+    <row r="219" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J219" s="1">
         <v>215</v>
       </c>
@@ -16245,7 +16265,7 @@
         <v>1.5053763440860215</v>
       </c>
     </row>
-    <row r="220" spans="10:19">
+    <row r="220" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J220" s="1">
         <v>216</v>
       </c>
@@ -16281,7 +16301,7 @@
         <v>1.502145922746781</v>
       </c>
     </row>
-    <row r="221" spans="10:19">
+    <row r="221" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J221" s="1">
         <v>217</v>
       </c>
@@ -16317,7 +16337,7 @@
         <v>1.4989293361884368</v>
       </c>
     </row>
-    <row r="222" spans="10:19">
+    <row r="222" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J222" s="1">
         <v>218</v>
       </c>
@@ -16353,7 +16373,7 @@
         <v>1.4925373134328359</v>
       </c>
     </row>
-    <row r="223" spans="10:19">
+    <row r="223" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J223" s="1">
         <v>219</v>
       </c>
@@ -16389,7 +16409,7 @@
         <v>1.2765957446808511</v>
       </c>
     </row>
-    <row r="224" spans="10:19">
+    <row r="224" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J224" s="1">
         <v>220</v>
       </c>
@@ -16425,7 +16445,7 @@
         <v>1.0615711252653928</v>
       </c>
     </row>
-    <row r="225" spans="10:19">
+    <row r="225" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J225" s="1">
         <v>221</v>
       </c>
@@ -16461,7 +16481,7 @@
         <v>1.0615711252653928</v>
       </c>
     </row>
-    <row r="226" spans="10:19">
+    <row r="226" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J226" s="1">
         <v>222</v>
       </c>
@@ -16497,7 +16517,7 @@
         <v>1.0615711252653928</v>
       </c>
     </row>
-    <row r="227" spans="10:19">
+    <row r="227" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J227" s="1">
         <v>223</v>
       </c>
@@ -16533,7 +16553,7 @@
         <v>0.84925690021231426</v>
       </c>
     </row>
-    <row r="228" spans="10:19">
+    <row r="228" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J228" s="1">
         <v>224</v>
       </c>
@@ -16569,7 +16589,7 @@
         <v>0.85106382978723405</v>
       </c>
     </row>
-    <row r="229" spans="10:19">
+    <row r="229" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J229" s="1">
         <v>225</v>
       </c>
@@ -16605,7 +16625,7 @@
         <v>0.63829787234042556</v>
       </c>
     </row>
-    <row r="230" spans="10:19">
+    <row r="230" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J230" s="1">
         <v>226</v>
       </c>
@@ -16641,7 +16661,7 @@
         <v>0.42553191489361702</v>
       </c>
     </row>
-    <row r="231" spans="10:19">
+    <row r="231" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J231" s="1">
         <v>227</v>
       </c>
@@ -16677,7 +16697,7 @@
         <v>0.63965884861407252</v>
       </c>
     </row>
-    <row r="232" spans="10:19">
+    <row r="232" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J232" s="1">
         <v>228</v>
       </c>
@@ -16713,7 +16733,7 @@
         <v>0.64102564102564108</v>
       </c>
     </row>
-    <row r="233" spans="10:19">
+    <row r="233" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J233" s="1">
         <v>229</v>
       </c>
@@ -16749,7 +16769,7 @@
         <v>0.42826552462526768</v>
       </c>
     </row>
-    <row r="234" spans="10:19">
+    <row r="234" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J234" s="1">
         <v>230</v>
       </c>
@@ -16785,7 +16805,7 @@
         <v>0.64516129032258063</v>
       </c>
     </row>
-    <row r="235" spans="10:19">
+    <row r="235" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J235" s="1">
         <v>231</v>
       </c>
@@ -16821,7 +16841,7 @@
         <v>0.86580086580086579</v>
       </c>
     </row>
-    <row r="236" spans="10:19">
+    <row r="236" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J236" s="1">
         <v>232</v>
       </c>
@@ -16857,7 +16877,7 @@
         <v>1.0893246187363834</v>
       </c>
     </row>
-    <row r="237" spans="10:19">
+    <row r="237" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J237" s="1">
         <v>233</v>
       </c>
@@ -16893,7 +16913,7 @@
         <v>1.0940919037199124</v>
       </c>
     </row>
-    <row r="238" spans="10:19">
+    <row r="238" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J238" s="1">
         <v>234</v>
       </c>
@@ -16929,7 +16949,7 @@
         <v>1.098901098901099</v>
       </c>
     </row>
-    <row r="239" spans="10:19">
+    <row r="239" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J239" s="1">
         <v>235</v>
       </c>
@@ -16965,7 +16985,7 @@
         <v>1.5555555555555556</v>
       </c>
     </row>
-    <row r="240" spans="10:19">
+    <row r="240" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J240" s="1">
         <v>236</v>
       </c>
@@ -17001,7 +17021,7 @@
         <v>1.5659955257270695</v>
       </c>
     </row>
-    <row r="241" spans="10:19">
+    <row r="241" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J241" s="1">
         <v>237</v>
       </c>
@@ -17037,7 +17057,7 @@
         <v>1.5765765765765767</v>
       </c>
     </row>
-    <row r="242" spans="10:19">
+    <row r="242" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J242" s="1">
         <v>238</v>
       </c>
@@ -17073,7 +17093,7 @@
         <v>1.5873015873015872</v>
       </c>
     </row>
-    <row r="243" spans="10:19">
+    <row r="243" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J243" s="1">
         <v>239</v>
       </c>
@@ -17109,7 +17129,7 @@
         <v>1.6018306636155606</v>
       </c>
     </row>
-    <row r="244" spans="10:19">
+    <row r="244" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J244" s="1">
         <v>240</v>
       </c>
@@ -17145,7 +17165,7 @@
         <v>1.6166281755196306</v>
       </c>
     </row>
-    <row r="245" spans="10:19">
+    <row r="245" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J245" s="1">
         <v>241</v>
       </c>
@@ -17181,7 +17201,7 @@
         <v>1.8604651162790697</v>
       </c>
     </row>
-    <row r="246" spans="10:19">
+    <row r="246" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J246" s="1">
         <v>242</v>
       </c>
@@ -17217,7 +17237,7 @@
         <v>1.405152224824356</v>
       </c>
     </row>
-    <row r="247" spans="10:19">
+    <row r="247" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J247" s="1">
         <v>243</v>
       </c>
@@ -17253,7 +17273,7 @@
         <v>0.47169811320754718</v>
       </c>
     </row>
-    <row r="248" spans="10:19">
+    <row r="248" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J248" s="1">
         <v>244</v>
       </c>
@@ -17289,7 +17309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="10:19">
+    <row r="249" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J249" s="1">
         <v>245</v>
       </c>
@@ -17325,7 +17345,7 @@
         <v>0.47961630695443647</v>
       </c>
     </row>
-    <row r="250" spans="10:19">
+    <row r="250" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J250" s="1">
         <v>246</v>
       </c>
@@ -17361,7 +17381,7 @@
         <v>1.6949152542372881</v>
       </c>
     </row>
-    <row r="251" spans="10:19">
+    <row r="251" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J251" s="1">
         <v>247</v>
       </c>
@@ -17397,7 +17417,7 @@
         <v>2.9268292682926829</v>
       </c>
     </row>
-    <row r="252" spans="10:19">
+    <row r="252" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J252" s="1">
         <v>248</v>
       </c>
@@ -17433,7 +17453,7 @@
         <v>0.49382716049382713</v>
       </c>
     </row>
-    <row r="253" spans="10:19">
+    <row r="253" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J253" s="1">
         <v>249</v>
       </c>
@@ -17469,7 +17489,7 @@
         <v>1.9950124688279303</v>
       </c>
     </row>
-    <row r="254" spans="10:19">
+    <row r="254" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J254" s="1">
         <v>250</v>
       </c>
@@ -17505,7 +17525,7 @@
         <v>2.0151133501259446</v>
       </c>
     </row>
-    <row r="255" spans="10:19">
+    <row r="255" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J255" s="1">
         <v>251</v>
       </c>
@@ -17541,7 +17561,7 @@
         <v>2.2900763358778624</v>
       </c>
     </row>
-    <row r="256" spans="10:19">
+    <row r="256" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J256" s="1">
         <v>252</v>
       </c>
@@ -17577,7 +17597,7 @@
         <v>1.7948717948717949</v>
       </c>
     </row>
-    <row r="257" spans="10:19">
+    <row r="257" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J257" s="1">
         <v>253</v>
       </c>
@@ -17613,7 +17633,7 @@
         <v>1.2987012987012987</v>
       </c>
     </row>
-    <row r="258" spans="10:19">
+    <row r="258" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J258" s="1">
         <v>254</v>
       </c>
@@ -17649,7 +17669,7 @@
         <v>1.0498687664041995</v>
       </c>
     </row>
-    <row r="259" spans="10:19">
+    <row r="259" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J259" s="1">
         <v>255</v>
       </c>
@@ -17685,7 +17705,7 @@
         <v>0.79575596816976124</v>
       </c>
     </row>
-    <row r="260" spans="10:19">
+    <row r="260" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J260" s="1">
         <v>256</v>
       </c>
@@ -17721,7 +17741,7 @@
         <v>1.0695187165775402</v>
       </c>
     </row>
-    <row r="261" spans="10:19">
+    <row r="261" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J261" s="1">
         <v>257</v>
       </c>
@@ -17757,7 +17777,7 @@
         <v>0.81081081081081086</v>
       </c>
     </row>
-    <row r="262" spans="10:19">
+    <row r="262" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J262" s="1">
         <v>258</v>
       </c>
@@ -17793,7 +17813,7 @@
         <v>1.095890410958904</v>
       </c>
     </row>
-    <row r="263" spans="10:19">
+    <row r="263" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J263" s="1">
         <v>259</v>
       </c>
@@ -17829,7 +17849,7 @@
         <v>0.554016620498615</v>
       </c>
     </row>
-    <row r="264" spans="10:19">
+    <row r="264" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J264" s="1">
         <v>260</v>
       </c>
@@ -17865,7 +17885,7 @@
         <v>0.56022408963585435</v>
       </c>
     </row>
-    <row r="265" spans="10:19">
+    <row r="265" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J265" s="1">
         <v>261</v>
       </c>
@@ -17901,7 +17921,7 @@
         <v>1.1331444759206799</v>
       </c>
     </row>
-    <row r="266" spans="10:19">
+    <row r="266" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J266" s="1">
         <v>262</v>
       </c>
@@ -17937,7 +17957,7 @@
         <v>1.4326647564469914</v>
       </c>
     </row>
-    <row r="267" spans="10:19">
+    <row r="267" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J267" s="1">
         <v>263</v>
       </c>
@@ -17973,7 +17993,7 @@
         <v>0.86956521739130432</v>
       </c>
     </row>
-    <row r="268" spans="10:19">
+    <row r="268" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J268" s="1">
         <v>264</v>
       </c>
@@ -18009,7 +18029,7 @@
         <v>0.87976539589442815</v>
       </c>
     </row>
-    <row r="269" spans="10:19">
+    <row r="269" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J269" s="1">
         <v>265</v>
       </c>
@@ -18045,7 +18065,7 @@
         <v>1.1869436201780414</v>
       </c>
     </row>
-    <row r="270" spans="10:19">
+    <row r="270" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J270" s="1">
         <v>266</v>
       </c>
@@ -18081,7 +18101,7 @@
         <v>1.2012012012012012</v>
       </c>
     </row>
-    <row r="271" spans="10:19">
+    <row r="271" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J271" s="1">
         <v>267</v>
       </c>
@@ -18117,7 +18137,7 @@
         <v>0.3048780487804878</v>
       </c>
     </row>
-    <row r="272" spans="10:19">
+    <row r="272" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J272" s="1">
         <v>268</v>
       </c>
@@ -18153,7 +18173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="10:19">
+    <row r="273" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J273" s="1">
         <v>269</v>
       </c>
@@ -18189,7 +18209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="10:19">
+    <row r="274" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J274" s="1">
         <v>270</v>
       </c>
@@ -18225,7 +18245,7 @@
         <v>0.31347962382445144</v>
       </c>
     </row>
-    <row r="275" spans="10:19">
+    <row r="275" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J275" s="1">
         <v>271</v>
       </c>
@@ -18261,7 +18281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="10:19">
+    <row r="276" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J276" s="1">
         <v>272</v>
       </c>
@@ -18297,7 +18317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="10:19">
+    <row r="277" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J277" s="1">
         <v>273</v>
       </c>
@@ -18333,7 +18353,7 @@
         <v>0.31948881789137379</v>
       </c>
     </row>
-    <row r="278" spans="10:19">
+    <row r="278" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J278" s="1">
         <v>274</v>
       </c>
@@ -18369,7 +18389,7 @@
         <v>0.96463022508038587</v>
       </c>
     </row>
-    <row r="279" spans="10:19">
+    <row r="279" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J279" s="1">
         <v>275</v>
       </c>
@@ -18405,7 +18425,7 @@
         <v>0.970873786407767</v>
       </c>
     </row>
-    <row r="280" spans="10:19">
+    <row r="280" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J280" s="1">
         <v>276</v>
       </c>
@@ -18441,7 +18461,7 @@
         <v>1.2987012987012987</v>
       </c>
     </row>
-    <row r="281" spans="10:19">
+    <row r="281" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J281" s="1">
         <v>277</v>
       </c>
@@ -18477,7 +18497,7 @@
         <v>1.6286644951140066</v>
       </c>
     </row>
-    <row r="282" spans="10:19">
+    <row r="282" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J282" s="1">
         <v>278</v>
       </c>
@@ -18513,7 +18533,7 @@
         <v>1.3114754098360655</v>
       </c>
     </row>
-    <row r="283" spans="10:19">
+    <row r="283" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J283" s="1">
         <v>279</v>
       </c>
@@ -18549,7 +18569,7 @@
         <v>0.66006600660066006</v>
       </c>
     </row>
-    <row r="284" spans="10:19">
+    <row r="284" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J284" s="1">
         <v>280</v>
       </c>
@@ -18585,7 +18605,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="285" spans="10:19">
+    <row r="285" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J285" s="1">
         <v>281</v>
       </c>
@@ -18621,7 +18641,7 @@
         <v>0.33557046979865773</v>
       </c>
     </row>
-    <row r="286" spans="10:19">
+    <row r="286" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J286" s="1">
         <v>282</v>
       </c>
@@ -18657,7 +18677,7 @@
         <v>0.33783783783783783</v>
       </c>
     </row>
-    <row r="287" spans="10:19">
+    <row r="287" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J287" s="1">
         <v>283</v>
       </c>
@@ -18693,7 +18713,7 @@
         <v>0.68027210884353739</v>
       </c>
     </row>
-    <row r="288" spans="10:19">
+    <row r="288" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J288" s="1">
         <v>284</v>
       </c>
@@ -18729,7 +18749,7 @@
         <v>0.3401360544217687</v>
       </c>
     </row>
-    <row r="289" spans="10:19">
+    <row r="289" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J289" s="1">
         <v>285</v>
       </c>
@@ -18765,7 +18785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="10:19">
+    <row r="290" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J290" s="1">
         <v>286</v>
       </c>
@@ -18801,7 +18821,7 @@
         <v>1.0309278350515463</v>
       </c>
     </row>
-    <row r="291" spans="10:19">
+    <row r="291" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J291" s="1">
         <v>287</v>
       </c>
@@ -18837,7 +18857,7 @@
         <v>3.0927835051546393</v>
       </c>
     </row>
-    <row r="292" spans="10:19">
+    <row r="292" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J292" s="1">
         <v>288</v>
       </c>
@@ -18873,7 +18893,7 @@
         <v>3.7931034482758621</v>
       </c>
     </row>
-    <row r="293" spans="10:19">
+    <row r="293" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J293" s="1">
         <v>289</v>
       </c>
@@ -18909,7 +18929,7 @@
         <v>3.8194444444444446</v>
       </c>
     </row>
-    <row r="294" spans="10:19">
+    <row r="294" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J294" s="1">
         <v>290</v>
       </c>
@@ -18945,7 +18965,7 @@
         <v>3.125</v>
       </c>
     </row>
-    <row r="295" spans="10:19">
+    <row r="295" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J295" s="1">
         <v>291</v>
       </c>
@@ -18981,7 +19001,7 @@
         <v>1.3793103448275863</v>
       </c>
     </row>
-    <row r="296" spans="10:19">
+    <row r="296" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J296" s="1">
         <v>292</v>
       </c>
@@ -19017,7 +19037,7 @@
         <v>0.68027210884353739</v>
       </c>
     </row>
-    <row r="297" spans="10:19">
+    <row r="297" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J297" s="1">
         <v>293</v>
       </c>
@@ -19053,7 +19073,7 @@
         <v>2.9801324503311259</v>
       </c>
     </row>
-    <row r="298" spans="10:19">
+    <row r="298" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J298" s="1">
         <v>294</v>
       </c>
@@ -19089,7 +19109,7 @@
         <v>3.2467532467532467</v>
       </c>
     </row>
-    <row r="299" spans="10:19">
+    <row r="299" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J299" s="1">
         <v>295</v>
       </c>
@@ -19125,7 +19145,7 @@
         <v>2.2222222222222223</v>
       </c>
     </row>
-    <row r="300" spans="10:19">
+    <row r="300" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J300" s="1">
         <v>296</v>
       </c>
@@ -19161,7 +19181,7 @@
         <v>3.7267080745341614</v>
       </c>
     </row>
-    <row r="301" spans="10:19">
+    <row r="301" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J301" s="1">
         <v>297</v>
       </c>
@@ -19197,7 +19217,7 @@
         <v>3.9755351681957185</v>
       </c>
     </row>
-    <row r="302" spans="10:19">
+    <row r="302" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J302" s="1">
         <v>298</v>
       </c>
@@ -19233,7 +19253,7 @@
         <v>2.1212121212121211</v>
       </c>
     </row>
-    <row r="303" spans="10:19">
+    <row r="303" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J303" s="1">
         <v>299</v>
       </c>
@@ -19269,7 +19289,7 @@
         <v>1.2012012012012012</v>
       </c>
     </row>
-    <row r="304" spans="10:19">
+    <row r="304" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J304" s="1">
         <v>300</v>
       </c>
@@ -19305,7 +19325,7 @@
         <v>6.0060060060060056</v>
       </c>
     </row>
-    <row r="305" spans="10:19">
+    <row r="305" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J305" s="1">
         <v>301</v>
       </c>
@@ -19341,7 +19361,7 @@
         <v>7.5528700906344408</v>
       </c>
     </row>
-    <row r="306" spans="10:19">
+    <row r="306" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J306" s="1">
         <v>302</v>
       </c>
@@ -19377,7 +19397,7 @@
         <v>8.2317073170731714</v>
       </c>
     </row>
-    <row r="307" spans="10:19">
+    <row r="307" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J307" s="1">
         <v>303</v>
       </c>
@@ -19413,7 +19433,7 @@
         <v>6.4024390243902438</v>
       </c>
     </row>
-    <row r="308" spans="10:19">
+    <row r="308" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J308" s="1">
         <v>304</v>
       </c>
@@ -19449,7 +19469,7 @@
         <v>4.615384615384615</v>
       </c>
     </row>
-    <row r="309" spans="10:19">
+    <row r="309" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J309" s="1">
         <v>305</v>
       </c>
@@ -19485,7 +19505,7 @@
         <v>2.4844720496894408</v>
       </c>
     </row>
-    <row r="310" spans="10:19">
+    <row r="310" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J310" s="1">
         <v>306</v>
       </c>
@@ -19521,7 +19541,7 @@
         <v>1.5625</v>
       </c>
     </row>
-    <row r="311" spans="10:19">
+    <row r="311" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J311" s="1">
         <v>307</v>
       </c>
@@ -19557,7 +19577,7 @@
         <v>1.2618296529968454</v>
       </c>
     </row>
-    <row r="312" spans="10:19">
+    <row r="312" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J312" s="1">
         <v>308</v>
       </c>
@@ -19593,7 +19613,7 @@
         <v>0.31746031746031744</v>
       </c>
     </row>
-    <row r="313" spans="10:19">
+    <row r="313" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J313" s="1">
         <v>309</v>
       </c>
@@ -19629,7 +19649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="10:19">
+    <row r="314" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J314" s="1">
         <v>310</v>
       </c>
@@ -19665,7 +19685,7 @@
         <v>0.32573289902280128</v>
       </c>
     </row>
-    <row r="315" spans="10:19">
+    <row r="315" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J315" s="1">
         <v>311</v>
       </c>
@@ -19701,7 +19721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="10:19">
+    <row r="316" spans="10:19" x14ac:dyDescent="0.3">
       <c r="J316" s="1">
         <v>312</v>
       </c>

--- a/Assignment 1/final_plot-momen.xlsx
+++ b/Assignment 1/final_plot-momen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1121F63E-E5E2-4CED-B20C-D22E026EC656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2939D31-E994-4D4F-9AD1-D54AB52296F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5879,16 +5879,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>79.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.5</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.5</c:v>
+                  <c:v>78.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.5</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8269,8 +8269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9805,13 +9805,13 @@
       </c>
       <c r="E43">
         <f>SUM(F43,G44)*100/SUM(F43:G44)</f>
-        <v>97</v>
-      </c>
-      <c r="F43" s="1">
-        <v>97</v>
-      </c>
-      <c r="G43" s="1">
-        <v>3</v>
+        <v>79.5</v>
+      </c>
+      <c r="F43">
+        <v>76</v>
+      </c>
+      <c r="G43">
+        <v>24</v>
       </c>
       <c r="J43" s="1">
         <v>39</v>
@@ -9860,13 +9860,13 @@
       </c>
       <c r="E44">
         <f>SUM(F47,G48)*100/SUM(F47:G48)</f>
-        <v>97.5</v>
-      </c>
-      <c r="F44" s="1">
-        <v>3</v>
-      </c>
-      <c r="G44" s="1">
-        <v>97</v>
+        <v>78.5</v>
+      </c>
+      <c r="F44">
+        <v>17</v>
+      </c>
+      <c r="G44">
+        <v>83</v>
       </c>
       <c r="J44" s="1">
         <v>40</v>
@@ -9915,7 +9915,7 @@
       </c>
       <c r="E45">
         <f>SUM(F51,G52)*100/SUM(F51:G52)</f>
-        <v>97.5</v>
+        <v>78.5</v>
       </c>
       <c r="J45" s="1">
         <v>41</v>
@@ -9964,7 +9964,7 @@
       </c>
       <c r="E46">
         <f>SUM(F54,G55)*100/SUM(F54:G55)</f>
-        <v>98.5</v>
+        <v>80</v>
       </c>
       <c r="J46" s="1">
         <v>42</v>
@@ -10003,10 +10003,10 @@
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F47">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J47" s="1">
         <v>43</v>
@@ -10045,10 +10045,10 @@
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F48">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G48">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J48" s="1">
         <v>44</v>
@@ -10158,11 +10158,11 @@
       </c>
     </row>
     <row r="51" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F51" s="1">
-        <v>98</v>
-      </c>
-      <c r="G51" s="1">
-        <v>2</v>
+      <c r="F51">
+        <v>74</v>
+      </c>
+      <c r="G51">
+        <v>26</v>
       </c>
       <c r="J51" s="1">
         <v>47</v>
@@ -10200,11 +10200,11 @@
       </c>
     </row>
     <row r="52" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F52" s="1">
-        <v>3</v>
-      </c>
-      <c r="G52" s="1">
-        <v>97</v>
+      <c r="F52">
+        <v>17</v>
+      </c>
+      <c r="G52">
+        <v>83</v>
       </c>
       <c r="J52" s="1">
         <v>48</v>
@@ -10279,10 +10279,10 @@
     </row>
     <row r="54" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F54">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J54" s="1">
         <v>50</v>
@@ -10321,10 +10321,10 @@
     </row>
     <row r="55" spans="6:19" x14ac:dyDescent="0.3">
       <c r="F55">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G55">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="J55" s="1">
         <v>51</v>

--- a/Assignment 1/final_plot-momen.xlsx
+++ b/Assignment 1/final_plot-momen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\CI\CI_Assignment\Assignment 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2939D31-E994-4D4F-9AD1-D54AB52296F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770C6C0E-48C2-4218-8976-964BBAFB1713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3220" yWindow="2840" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="final_plot" sheetId="1" r:id="rId1"/>
@@ -5749,16 +5749,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>98.2834</c:v>
+                  <c:v>83.2834</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.756299999999982</c:v>
+                  <c:v>83.756299999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.851700000000008</c:v>
+                  <c:v>83.851699999999994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.886899999999983</c:v>
+                  <c:v>83.886899999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8269,8 +8269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:S316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="B66" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9798,7 +9798,7 @@
         <v>0.1</v>
       </c>
       <c r="C43" s="4">
-        <v>98.2834</v>
+        <v>83.2834</v>
       </c>
       <c r="D43" s="1">
         <v>97.186620816476704</v>
@@ -9853,7 +9853,7 @@
         <v>0.3</v>
       </c>
       <c r="C44" s="4">
-        <v>98.756299999999982</v>
+        <v>83.756299999999996</v>
       </c>
       <c r="D44" s="1">
         <v>98.025342557846855</v>
@@ -9908,7 +9908,7 @@
         <v>0.5</v>
       </c>
       <c r="C45" s="4">
-        <v>98.851700000000008</v>
+        <v>83.851699999999994</v>
       </c>
       <c r="D45" s="1">
         <v>97.473976060424917</v>
@@ -9957,7 +9957,7 @@
         <v>0.8</v>
       </c>
       <c r="C46" s="4">
-        <v>98.886899999999983</v>
+        <v>83.886899999999997</v>
       </c>
       <c r="D46" s="1">
         <v>98.397160892323114</v>
